--- a/exemples/cryptoAsterBnb.xlsx
+++ b/exemples/cryptoAsterBnb.xlsx
@@ -132,7 +132,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,7 +148,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD4EA6B"/>
-        <bgColor rgb="FFBBE33D"/>
+        <bgColor rgb="FFE8F2A1"/>
       </patternFill>
     </fill>
     <fill>
@@ -173,12 +173,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB4C7DC"/>
         <bgColor rgb="FFCCCCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBBE33D"/>
-        <bgColor rgb="FFD4EA6B"/>
       </patternFill>
     </fill>
   </fills>
@@ -223,7 +217,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -268,24 +262,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -341,7 +327,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FFBBE33D"/>
+      <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -474,7 +460,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4:D4"/>
+      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="A5:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -569,19 +555,19 @@
       </c>
       <c r="I2" s="5" t="n">
         <f aca="false">MIN(A4:A9999)</f>
-        <v>200000</v>
+        <v>999</v>
       </c>
       <c r="J2" s="6" t="n">
         <f aca="false">SUMPRODUCT(A4:A9999,B4:B9999)/SUM(B4:B9999)</f>
-        <v>200000</v>
+        <v>999</v>
       </c>
       <c r="K2" s="5" t="n">
         <f aca="false">J2*(1+(C2/100))</f>
-        <v>240000</v>
+        <v>1198.8</v>
       </c>
       <c r="L2" s="6" t="n">
         <f aca="false">SUM(B4:B9999)</f>
-        <v>1E-011</v>
+        <v>1E-010</v>
       </c>
       <c r="M2" s="7" t="n">
         <f aca="false">COUNTA(A1:A9999)</f>
@@ -609,13 +595,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="n">
-        <v>200000</v>
+        <v>999</v>
       </c>
       <c r="B4" s="11" t="n">
-        <v>1E-011</v>
+        <v>1E-010</v>
       </c>
       <c r="C4" s="12" t="n">
-        <v>45919</v>
+        <v>45972</v>
       </c>
       <c r="D4" s="13"/>
       <c r="G4" s="10"/>
@@ -624,13 +610,13 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/exemples/cryptoAsterBnb.xlsx
+++ b/exemples/cryptoAsterBnb.xlsx
@@ -460,13 +460,13 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="A5:D19"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.6"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.54"/>
